--- a/deeplearning1/excel/experiments.xlsx
+++ b/deeplearning1/excel/experiments.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Experiment</t>
   </si>
@@ -151,6 +151,30 @@
   </si>
   <si>
     <t>[[2465   48][  50 2437]]</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>[[101   0][  0  99]]</t>
+  </si>
+  <si>
+    <t>[[9775  212][  47 9966]]</t>
+  </si>
+  <si>
+    <t>lesson2.1.py</t>
+  </si>
+  <si>
+    <t>[[24  0][26  0]]</t>
+  </si>
+  <si>
+    <t>[[24  0][ 5 21]]</t>
+  </si>
+  <si>
+    <t>[[24  0][ 2 24]]</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
 </sst>
 </file>
@@ -201,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -222,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,11 +564,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,9 +578,9 @@
     <col min="3" max="3" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -566,11 +593,11 @@
     <col min="19" max="19" width="9.140625" style="3"/>
     <col min="20" max="20" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="19.85546875" style="8" customWidth="1"/>
-    <col min="26" max="26" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -591,13 +618,13 @@
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -636,7 +663,7 @@
       <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
       <c r="W1" s="4" t="s">
@@ -648,7 +675,7 @@
       <c r="Y1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
       <c r="AA1" s="4" t="s">
@@ -670,40 +697,248 @@
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="C7" s="9">
+        <v>42952.383506944447</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>56</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z7">
+        <v>499</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42952.417500000003</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>20000</v>
+      </c>
+      <c r="G8">
+        <v>5000</v>
+      </c>
+      <c r="H8">
+        <v>12500</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3">
+        <v>64</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="V8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z8">
+        <v>6323</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0.11378000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9">
+        <v>42952.875243055554</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <v>56</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.4667</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.505</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1">
-        <v>42953.447951388887</v>
+        <v>42952.890659722223</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>12500</v>
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="J10" s="3">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="L10" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" s="3">
         <v>5</v>
@@ -721,96 +956,176 @@
         <v>33</v>
       </c>
       <c r="T10" s="3">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="V10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0.96</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>789</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42953.447951388887</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13">
+        <v>20000</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13">
+        <v>12500</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3">
+        <v>64</v>
+      </c>
+      <c r="L13" s="3">
+        <v>5</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="3">
         <v>0.97109999999999996</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U13" s="3">
         <v>0.97819999999999996</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V13" t="s">
         <v>38</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W13" s="3">
         <v>0.97740000000000005</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X13" s="3">
         <v>0.98040000000000005</v>
       </c>
-      <c r="Y10" s="8" t="s">
+      <c r="Y13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z13">
         <v>8610</v>
       </c>
+      <c r="AA13" s="3">
+        <v>0.10698000000000001</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>42953.593530092592</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F14">
         <v>20000</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G14">
         <v>5000</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H14">
         <v>12500</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J14" s="3">
         <v>64</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L14" s="3">
         <v>5</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N14" s="3">
         <v>5</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T14" s="6">
         <v>0.97889999999999999</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U14" s="6">
         <v>0.98219999999999996</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V14" t="s">
         <v>39</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W14" s="6">
         <v>0.98260000000000003</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X14" s="6">
         <v>0.98119999999999996</v>
       </c>
-      <c r="Y11" s="8" t="s">
+      <c r="Y14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z14">
         <v>8746</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>9.8430000000000004E-2</v>
       </c>
     </row>
   </sheetData>
